--- a/notebooks/reports/ab_results_cookie_cats.xlsx
+++ b/notebooks/reports/ab_results_cookie_cats.xlsx
@@ -138,6 +138,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -190,8 +194,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -202,6 +208,236 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Control vs Treatment Rates</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Control Rate (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>retention_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>retention_7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$D$2:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Treatment Rate (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>retention_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>retention_7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$E$2:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Metric</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rate (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,36 +730,46 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -537,19 +783,19 @@
       <c r="C2">
         <v>45489</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>44.82</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>44.23</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>-0.59</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>-1.32</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0.07440965529691912</v>
       </c>
       <c r="I2">
@@ -569,19 +815,19 @@
       <c r="C3">
         <v>45489</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>19.02</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>18.2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>-0.82</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>-4.31</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0.001554249975614264</v>
       </c>
       <c r="I3">
@@ -593,6 +839,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -605,25 +852,25 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -687,18 +934,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B2">
@@ -709,7 +956,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B3">
@@ -733,21 +980,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -764,7 +1011,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -794,18 +1041,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B2">
@@ -816,7 +1063,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B3">
@@ -827,7 +1074,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B4">
@@ -838,7 +1085,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B5">
@@ -849,7 +1096,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B6">
@@ -860,7 +1107,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B7">
@@ -871,7 +1118,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B8">
@@ -882,7 +1129,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B9">
@@ -893,7 +1140,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B10">
@@ -904,7 +1151,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B11">
